--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Reln</t>
+  </si>
+  <si>
+    <t>Lrp8</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Reln</t>
-  </si>
-  <si>
-    <t>Lrp8</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H2">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N2">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q2">
-        <v>0.278351332919</v>
+        <v>0.06464504019022221</v>
       </c>
       <c r="R2">
-        <v>2.505161996271</v>
+        <v>0.5818053617119999</v>
       </c>
       <c r="S2">
-        <v>0.02374326390871422</v>
+        <v>0.01031819740254488</v>
       </c>
       <c r="T2">
-        <v>0.02374326390871422</v>
+        <v>0.01031819740254488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H3">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q3">
-        <v>0.1331719805472222</v>
+        <v>0.09567089546111111</v>
       </c>
       <c r="R3">
-        <v>1.198547824925</v>
+        <v>0.8610380591500001</v>
       </c>
       <c r="S3">
-        <v>0.01135951980621186</v>
+        <v>0.01527033136867458</v>
       </c>
       <c r="T3">
-        <v>0.01135951980621186</v>
+        <v>0.01527033136867458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H4">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N4">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q4">
-        <v>0.04037168460600001</v>
+        <v>0.02364840467377778</v>
       </c>
       <c r="R4">
-        <v>0.363345161454</v>
+        <v>0.212835642064</v>
       </c>
       <c r="S4">
-        <v>0.003443689498402984</v>
+        <v>0.003774595962216003</v>
       </c>
       <c r="T4">
-        <v>0.003443689498402984</v>
+        <v>0.003774595962216003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H5">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N5">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q5">
-        <v>0.09073366529577778</v>
+        <v>0.03556268655088889</v>
       </c>
       <c r="R5">
-        <v>0.816602987662</v>
+        <v>0.320064178958</v>
       </c>
       <c r="S5">
-        <v>0.007739547491764659</v>
+        <v>0.005676271820964862</v>
       </c>
       <c r="T5">
-        <v>0.007739547491764659</v>
+        <v>0.005676271820964862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.089199</v>
       </c>
       <c r="I6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N6">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q6">
-        <v>1.399737691293</v>
+        <v>0.4525031235653333</v>
       </c>
       <c r="R6">
-        <v>12.597639221637</v>
+        <v>4.072528112087999</v>
       </c>
       <c r="S6">
-        <v>0.1193970981163407</v>
+        <v>0.07222544127865621</v>
       </c>
       <c r="T6">
-        <v>0.1193970981163407</v>
+        <v>0.0722254412786562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.089199</v>
       </c>
       <c r="I7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q7">
         <v>0.6696782754416667</v>
       </c>
       <c r="R7">
-        <v>6.027104478975</v>
+        <v>6.027104478975001</v>
       </c>
       <c r="S7">
-        <v>0.05712330478536307</v>
+        <v>0.1068894476957581</v>
       </c>
       <c r="T7">
-        <v>0.05712330478536307</v>
+        <v>0.1068894476957581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,40 +915,40 @@
         <v>3.089199</v>
       </c>
       <c r="I8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N8">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q8">
-        <v>0.203015979882</v>
+        <v>0.1655343851706667</v>
       </c>
       <c r="R8">
-        <v>1.827143818938</v>
+        <v>1.489809466536</v>
       </c>
       <c r="S8">
-        <v>0.01731718665571195</v>
+        <v>0.02642146184879594</v>
       </c>
       <c r="T8">
-        <v>0.01731718665571195</v>
+        <v>0.02642146184879593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>3.089199</v>
       </c>
       <c r="I9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N9">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q9">
-        <v>0.4562698868793333</v>
+        <v>0.2489321175963334</v>
       </c>
       <c r="R9">
-        <v>4.106428981914</v>
+        <v>2.240389058367</v>
       </c>
       <c r="S9">
-        <v>0.03891964958158718</v>
+        <v>0.03973283521263835</v>
       </c>
       <c r="T9">
-        <v>0.03891964958158718</v>
+        <v>0.03973283521263834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H10">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I10">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J10">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N10">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q10">
-        <v>4.329890492000001</v>
+        <v>1.327776308327111</v>
       </c>
       <c r="R10">
-        <v>38.96901442800001</v>
+        <v>11.949986774944</v>
       </c>
       <c r="S10">
-        <v>0.3693380289193903</v>
+        <v>0.2119305365953447</v>
       </c>
       <c r="T10">
-        <v>0.3693380289193903</v>
+        <v>0.2119305365953447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H11">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I11">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J11">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.951025</v>
       </c>
       <c r="O11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q11">
-        <v>2.071554988888889</v>
+        <v>1.965031625255556</v>
       </c>
       <c r="R11">
-        <v>18.6439949</v>
+        <v>17.6852846273</v>
       </c>
       <c r="S11">
-        <v>0.1767028606861939</v>
+        <v>0.3136448542992346</v>
       </c>
       <c r="T11">
-        <v>0.1767028606861939</v>
+        <v>0.3136448542992346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H12">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I12">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J12">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N12">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q12">
-        <v>0.6280012080000001</v>
+        <v>0.485726226840889</v>
       </c>
       <c r="R12">
-        <v>5.652010872000001</v>
+        <v>4.371536041568</v>
       </c>
       <c r="S12">
-        <v>0.05356826662250747</v>
+        <v>0.07752828488295439</v>
       </c>
       <c r="T12">
-        <v>0.05356826662250747</v>
+        <v>0.07752828488295438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H13">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I13">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J13">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N13">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q13">
-        <v>1.411406335111111</v>
+        <v>0.7304395282884445</v>
       </c>
       <c r="R13">
-        <v>12.702657016</v>
+        <v>6.573955754596001</v>
       </c>
       <c r="S13">
-        <v>0.1203924290412004</v>
+        <v>0.1165877416322173</v>
       </c>
       <c r="T13">
-        <v>0.1203924290412004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.012677</v>
-      </c>
-      <c r="I14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>1.359321</v>
-      </c>
-      <c r="N14">
-        <v>4.077963</v>
-      </c>
-      <c r="O14">
-        <v>0.5129683551755682</v>
-      </c>
-      <c r="P14">
-        <v>0.5129683551755682</v>
-      </c>
-      <c r="Q14">
-        <v>0.005744037439000001</v>
-      </c>
-      <c r="R14">
-        <v>0.051696336951</v>
-      </c>
-      <c r="S14">
-        <v>0.0004899642311229709</v>
-      </c>
-      <c r="T14">
-        <v>0.0004899642311229709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.012677</v>
-      </c>
-      <c r="I15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.6503416666666667</v>
-      </c>
-      <c r="N15">
-        <v>1.951025</v>
-      </c>
-      <c r="O15">
-        <v>0.2454200994850647</v>
-      </c>
-      <c r="P15">
-        <v>0.2454200994850647</v>
-      </c>
-      <c r="Q15">
-        <v>0.002748127102777778</v>
-      </c>
-      <c r="R15">
-        <v>0.024733143925</v>
-      </c>
-      <c r="S15">
-        <v>0.0002344142072958225</v>
-      </c>
-      <c r="T15">
-        <v>0.0002344142072958225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.012677</v>
-      </c>
-      <c r="I16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.197154</v>
-      </c>
-      <c r="N16">
-        <v>0.591462</v>
-      </c>
-      <c r="O16">
-        <v>0.07440020649742332</v>
-      </c>
-      <c r="P16">
-        <v>0.07440020649742332</v>
-      </c>
-      <c r="Q16">
-        <v>0.0008331070860000001</v>
-      </c>
-      <c r="R16">
-        <v>0.007497963774</v>
-      </c>
-      <c r="S16">
-        <v>7.106372080091325E-05</v>
-      </c>
-      <c r="T16">
-        <v>7.106372080091325E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.012677</v>
-      </c>
-      <c r="I17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4430953333333333</v>
-      </c>
-      <c r="N17">
-        <v>1.329286</v>
-      </c>
-      <c r="O17">
-        <v>0.1672113388419439</v>
-      </c>
-      <c r="P17">
-        <v>0.1672113388419439</v>
-      </c>
-      <c r="Q17">
-        <v>0.001872373180222222</v>
-      </c>
-      <c r="R17">
-        <v>0.016851358622</v>
-      </c>
-      <c r="S17">
-        <v>0.0001597127273917222</v>
-      </c>
-      <c r="T17">
-        <v>0.0001597127273917222</v>
+        <v>0.1165877416322173</v>
       </c>
     </row>
   </sheetData>
